--- a/class_schedules/NEUROSCIENCE (NSCI).xlsx
+++ b/class_schedules/NEUROSCIENCE (NSCI).xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>607F</t>
+  </si>
+  <si>
+    <t>607H</t>
   </si>
   <si>
     <t>995F</t>
@@ -52,43 +55,40 @@
     <t>01</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>12189</t>
-  </si>
-  <si>
-    <t>14803</t>
-  </si>
-  <si>
-    <t>14804</t>
-  </si>
-  <si>
-    <t>14805</t>
-  </si>
-  <si>
-    <t>14228</t>
-  </si>
-  <si>
-    <t>14025</t>
-  </si>
-  <si>
-    <t>14806</t>
-  </si>
-  <si>
-    <t>7393</t>
-  </si>
-  <si>
-    <t>14807</t>
-  </si>
-  <si>
-    <t>11454</t>
-  </si>
-  <si>
-    <t>14226</t>
+    <t>14795</t>
+  </si>
+  <si>
+    <t>8425</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>14591</t>
+  </si>
+  <si>
+    <t>14592</t>
+  </si>
+  <si>
+    <t>14593</t>
+  </si>
+  <si>
+    <t>14594</t>
+  </si>
+  <si>
+    <t>12966</t>
+  </si>
+  <si>
+    <t>11161</t>
+  </si>
+  <si>
+    <t>11155</t>
+  </si>
+  <si>
+    <t>10652</t>
+  </si>
+  <si>
+    <t>10646</t>
   </si>
   <si>
     <t>4</t>
@@ -100,31 +100,31 @@
     <t>F</t>
   </si>
   <si>
-    <t>Academic Writing Amer Classrm</t>
-  </si>
-  <si>
-    <t>Writing for College &amp; Beyond</t>
-  </si>
-  <si>
-    <t>Writing to Learn &amp; Participate</t>
-  </si>
-  <si>
-    <t>Speaking and Writing</t>
-  </si>
-  <si>
-    <t>Journalism Basics</t>
-  </si>
-  <si>
-    <t>Literary Journalism</t>
-  </si>
-  <si>
-    <t>Social Justice, Media, Memory</t>
-  </si>
-  <si>
-    <t>Teaching &amp; Tutoring Writing</t>
-  </si>
-  <si>
-    <t>Speaking Lab</t>
+    <t>Invertebrate Neurobiology</t>
+  </si>
+  <si>
+    <t>The Brain: Intro to Neurosci</t>
+  </si>
+  <si>
+    <t>Neuroscience Laboratory</t>
+  </si>
+  <si>
+    <t>Neuroimmunology</t>
+  </si>
+  <si>
+    <t>Res Methods in Neuroimmunology</t>
+  </si>
+  <si>
+    <t>Cognitive Neuroscience</t>
+  </si>
+  <si>
+    <t>Cognitive NSCI Laboratory</t>
+  </si>
+  <si>
+    <t>Senior Seminar</t>
+  </si>
+  <si>
+    <t>Research -</t>
   </si>
   <si>
     <t>Private Reading -</t>
@@ -136,55 +136,52 @@
     <t>TR</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>0930-1045am</t>
+  </si>
+  <si>
+    <t>0130-0420pm</t>
+  </si>
+  <si>
     <t>1000-1050am</t>
   </si>
   <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
     <t>1100-1150am</t>
   </si>
   <si>
-    <t>0230-0320pm</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>0930-1045am</t>
-  </si>
-  <si>
-    <t>0700-0900pm</t>
-  </si>
-  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Sundt Harald</t>
-  </si>
-  <si>
-    <t>Smith Cortney</t>
-  </si>
-  <si>
-    <t>Cooper Jan</t>
-  </si>
-  <si>
-    <t>Beutin Lyndsey</t>
-  </si>
-  <si>
-    <t>McMillin Laurie</t>
-  </si>
-  <si>
-    <t>Guidry Denise</t>
+    <t>Paine Tracie</t>
+  </si>
+  <si>
+    <t>Howard Christopher</t>
+  </si>
+  <si>
+    <t>Olszens Monica</t>
+  </si>
+  <si>
+    <t>Simen Patrick</t>
+  </si>
+  <si>
+    <t>Kwakye Gunnar</t>
   </si>
 </sst>
 </file>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -606,7 +603,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
@@ -623,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -638,16 +635,16 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -673,16 +670,16 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,10 +690,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -711,13 +708,13 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -743,10 +740,10 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -763,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -781,13 +778,13 @@
         <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -798,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -813,7 +810,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
@@ -833,10 +830,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -848,16 +845,16 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -868,13 +865,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -883,16 +880,16 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -903,22 +900,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
@@ -927,7 +924,7 @@
         <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -938,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -953,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
@@ -962,7 +959,42 @@
         <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
